--- a/Formatted.Data/BLD.counties.xlsx
+++ b/Formatted.Data/BLD.counties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://holdenarb-my.sharepoint.com/personal/sworthy_holdenfg_org/Documents/Documents/GitHub/LTREB/Formatted.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8758579F-C22C-4344-AAC1-175EB8E070D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8758579F-C22C-4344-AAC1-175EB8E070D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62326AB5-4C82-4B7D-8DA8-CF0FF7AB8A8A}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="6120" windowWidth="11712" windowHeight="6216" xr2:uid="{BC66A078-ED9C-49F6-95A3-A1E5E1CA5575}"/>
+    <workbookView xWindow="11388" yWindow="1128" windowWidth="11352" windowHeight="10392" xr2:uid="{BC66A078-ED9C-49F6-95A3-A1E5E1CA5575}"/>
   </bookViews>
   <sheets>
     <sheet name="BLD.counties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6573" uniqueCount="2236">
   <si>
     <t>STATEFP</t>
   </si>
@@ -7591,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04442410-1C8A-441B-94AD-27B8E573B84B}">
   <dimension ref="A1:T605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B598" workbookViewId="0">
-      <selection activeCell="T600" sqref="T600"/>
+    <sheetView tabSelected="1" topLeftCell="B298" workbookViewId="0">
+      <selection activeCell="U305" sqref="U305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26814,8 +26814,8 @@
       <c r="S310">
         <v>-81.365667299999998</v>
       </c>
-      <c r="T310" t="s">
-        <v>33</v>
+      <c r="T310">
+        <v>2017</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
